--- a/Report/Nets_Calculate.xlsx
+++ b/Report/Nets_Calculate.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mang mau" sheetId="1" r:id="rId1"/>
     <sheet name="mang trien khai" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="155">
   <si>
     <t>Layer</t>
   </si>
@@ -308,6 +309,191 @@
   </si>
   <si>
     <t>5x5x17</t>
+  </si>
+  <si>
+    <t>256x256x3</t>
+  </si>
+  <si>
+    <t>3x3x3x8</t>
+  </si>
+  <si>
+    <t>128x128x8</t>
+  </si>
+  <si>
+    <t>3x3x8x16</t>
+  </si>
+  <si>
+    <t>256x256x8</t>
+  </si>
+  <si>
+    <t>128x128x16</t>
+  </si>
+  <si>
+    <t>64x64x16</t>
+  </si>
+  <si>
+    <t>3x3x16x32</t>
+  </si>
+  <si>
+    <t>64x64x32</t>
+  </si>
+  <si>
+    <t>32x32x32</t>
+  </si>
+  <si>
+    <t>3x3x32x64</t>
+  </si>
+  <si>
+    <t>32x32x64</t>
+  </si>
+  <si>
+    <t>16x16x64</t>
+  </si>
+  <si>
+    <t>16x16x128</t>
+  </si>
+  <si>
+    <t>8x8x128</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>8192x128</t>
+  </si>
+  <si>
+    <t>128x64</t>
+  </si>
+  <si>
+    <t>62x62x96</t>
+  </si>
+  <si>
+    <t>30x30x96</t>
+  </si>
+  <si>
+    <t>30x30x256</t>
+  </si>
+  <si>
+    <t>14x14x256</t>
+  </si>
+  <si>
+    <t>14x14x384</t>
+  </si>
+  <si>
+    <t>7x7x256</t>
+  </si>
+  <si>
+    <t>12544x4096</t>
+  </si>
+  <si>
+    <t>4096x64</t>
+  </si>
+  <si>
+    <t>256x256x64</t>
+  </si>
+  <si>
+    <t>128x128x64</t>
+  </si>
+  <si>
+    <t>128x128x128</t>
+  </si>
+  <si>
+    <t>64x64x128</t>
+  </si>
+  <si>
+    <t>64x64x256</t>
+  </si>
+  <si>
+    <t>32x32x256</t>
+  </si>
+  <si>
+    <t>32x32x512</t>
+  </si>
+  <si>
+    <t>16x16x512</t>
+  </si>
+  <si>
+    <t>8x8x512</t>
+  </si>
+  <si>
+    <t>32768x4096</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>Conv-0</t>
+  </si>
+  <si>
+    <t>7x7x3x64</t>
+  </si>
+  <si>
+    <t>MaxPool-0</t>
+  </si>
+  <si>
+    <t>64x64x64</t>
+  </si>
+  <si>
+    <t>Block-2</t>
+  </si>
+  <si>
+    <t>Block-3</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>3x3x64
+3x3x64
+3x3x64</t>
+  </si>
+  <si>
+    <t>32x32x128</t>
+  </si>
+  <si>
+    <t>3x3x128
+3x3x128
+3x3x128</t>
+  </si>
+  <si>
+    <t>Block-4</t>
+  </si>
+  <si>
+    <t>3x3x256
+3x3x256
+3x3x256</t>
+  </si>
+  <si>
+    <t>16x16x256</t>
+  </si>
+  <si>
+    <t>Block-5</t>
+  </si>
+  <si>
+    <t>3x3x512
+3x3x512
+3x3x512</t>
+  </si>
+  <si>
+    <t>AvgPool</t>
+  </si>
+  <si>
+    <t>4x4x512</t>
+  </si>
+  <si>
+    <t>4x4x512x1024</t>
+  </si>
+  <si>
+    <t>1024x64</t>
+  </si>
+  <si>
+    <t>RestNet34</t>
   </si>
 </sst>
 </file>
@@ -369,7 +555,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +583,36 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1850,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,4 +3220,1400 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="26" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="13">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="13">
+        <v>224</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="4">
+        <v>34944</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="10">
+        <v>64</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
+        <v>1</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1792</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="10">
+        <v>64</v>
+      </c>
+      <c r="T4" s="10">
+        <v>1</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" s="10">
+        <v>36928</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="13">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1178</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="4">
+        <v>614656</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>2</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="10">
+        <v>128</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W6" s="10">
+        <v>73856</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="13">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="13">
+        <v>4640</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="4">
+        <v>885120</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="10">
+        <v>128</v>
+      </c>
+      <c r="T7" s="10">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
+        <v>1</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W7" s="10">
+        <v>147584</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1">
+        <v>384</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1327488</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>2</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13">
+        <v>64</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="13">
+        <v>18496</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="4">
+        <v>884992</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="10">
+        <v>256</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <v>1</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="W9" s="10">
+        <v>295168</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="10">
+        <v>256</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="W10" s="10">
+        <v>590080</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19">
+        <v>1024</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="13">
+        <v>128</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="13">
+        <v>73856</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="4">
+        <v>51384320</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="10">
+        <v>256</v>
+      </c>
+      <c r="T11" s="10">
+        <v>1</v>
+      </c>
+      <c r="U11" s="10">
+        <v>1</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="W11" s="10">
+        <v>590080</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="4">
+        <v>16781312</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <v>2</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14">
+        <f>SUM(AD2:AD11)</f>
+        <v>8489856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="13">
+        <v>128</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1048704</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="4">
+        <v>262208</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="10">
+        <v>512</v>
+      </c>
+      <c r="T13" s="10">
+        <v>1</v>
+      </c>
+      <c r="U13" s="10">
+        <v>1</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1180160</v>
+      </c>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="13">
+        <v>64</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="13">
+        <v>8256</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8">
+        <f>SUM(O2:O13)</f>
+        <v>72175040</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="10">
+        <v>512</v>
+      </c>
+      <c r="T14" s="10">
+        <v>1</v>
+      </c>
+      <c r="U14" s="10">
+        <v>1</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W14" s="10">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="14">
+        <f>SUM(G2:G14)</f>
+        <v>1155354</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="10">
+        <v>512</v>
+      </c>
+      <c r="T15" s="10">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
+        <v>1</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="W15" s="10">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="10">
+        <v>512</v>
+      </c>
+      <c r="T17" s="10">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
+        <v>1</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17" s="10">
+        <v>2359296</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="10">
+        <v>512</v>
+      </c>
+      <c r="T18" s="10">
+        <v>1</v>
+      </c>
+      <c r="U18" s="10">
+        <v>1</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18" s="10">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" s="10">
+        <v>512</v>
+      </c>
+      <c r="T19" s="10">
+        <v>1</v>
+      </c>
+      <c r="U19" s="10">
+        <v>1</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W19" s="10">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
+        <v>2</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S21" s="10">
+        <v>4096</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
+        <v>4096</v>
+      </c>
+      <c r="W21" s="10">
+        <v>134221824</v>
+      </c>
+    </row>
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="10">
+        <v>4096</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>4096</v>
+      </c>
+      <c r="W22" s="10">
+        <v>16781312</v>
+      </c>
+    </row>
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="S23" s="10">
+        <v>64</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>64</v>
+      </c>
+      <c r="W23" s="10">
+        <v>262208</v>
+      </c>
+    </row>
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="Q24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11">
+        <f>SUM(W2:W23)</f>
+        <v>165977472</v>
+      </c>
+    </row>
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Report/Nets_Calculate.xlsx
+++ b/Report/Nets_Calculate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="158">
   <si>
     <t>Layer</t>
   </si>
@@ -356,18 +356,6 @@
     <t>8x8x128</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>8192x128</t>
-  </si>
-  <si>
-    <t>128x64</t>
-  </si>
-  <si>
     <t>62x62x96</t>
   </si>
   <si>
@@ -384,9 +372,6 @@
   </si>
   <si>
     <t>7x7x256</t>
-  </si>
-  <si>
-    <t>12544x4096</t>
   </si>
   <si>
     <t>4096x64</t>
@@ -494,6 +479,30 @@
   </si>
   <si>
     <t>RestNet34</t>
+  </si>
+  <si>
+    <t>8192x256</t>
+  </si>
+  <si>
+    <t>256x48</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>12544x2048</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2048x2048</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2048x5</t>
   </si>
 </sst>
 </file>
@@ -3226,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,7 +3334,7 @@
         <v>14</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Z1" s="21" t="s">
         <v>17</v>
@@ -3334,13 +3343,13 @@
         <v>12</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AC1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -3464,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O3" s="4">
         <v>34944</v>
@@ -3485,16 +3494,16 @@
         <v>1</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W3" s="10">
         <v>1792</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="19">
         <v>2</v>
@@ -3503,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD3" s="19">
         <v>9408</v>
@@ -3547,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
@@ -3568,13 +3577,13 @@
         <v>1</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W4" s="10">
         <v>36928</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Z4" s="19" t="s">
         <v>52</v>
@@ -3586,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AD4" s="19">
         <v>0</v>
@@ -3630,7 +3639,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O5" s="4">
         <v>614656</v>
@@ -3651,16 +3660,16 @@
         <v>0</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="W5" s="10">
         <v>0</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AA5" s="20">
         <v>1</v>
@@ -3669,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="AC5" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AD5" s="19">
         <v>1728</v>
@@ -3713,7 +3722,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -3734,16 +3743,16 @@
         <v>1</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="W6" s="10">
         <v>73856</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="20">
         <v>1</v>
@@ -3752,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AD6" s="19">
         <v>3072</v>
@@ -3796,7 +3805,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O7" s="4">
         <v>885120</v>
@@ -3817,16 +3826,16 @@
         <v>1</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="W7" s="10">
         <v>147584</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="20">
         <v>1</v>
@@ -3835,7 +3844,7 @@
         <v>6</v>
       </c>
       <c r="AC7" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AD7" s="19">
         <v>9216</v>
@@ -3879,7 +3888,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O8" s="4">
         <v>1327488</v>
@@ -3900,25 +3909,25 @@
         <v>0</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="AD8" s="19">
         <v>12288</v>
@@ -3962,7 +3971,7 @@
         <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O9" s="4">
         <v>884992</v>
@@ -3983,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="W9" s="10">
         <v>295168</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Z9" s="20" t="s">
         <v>52</v>
@@ -4001,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AD9" s="19">
         <v>0</v>
@@ -4045,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
@@ -4066,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="W10" s="10">
         <v>590080</v>
@@ -4075,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
@@ -4112,10 +4121,10 @@
         <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>4</v>
@@ -4124,10 +4133,10 @@
         <v>4</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="O11" s="4">
-        <v>51384320</v>
+        <v>25692160</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>74</v>
@@ -4145,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="W11" s="10">
         <v>590080</v>
@@ -4154,7 +4163,7 @@
         <v>42</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
@@ -4191,10 +4200,10 @@
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>4</v>
@@ -4203,10 +4212,10 @@
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="O12" s="4">
-        <v>16781312</v>
+        <v>4196352</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>37</v>
@@ -4224,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="W12" s="10">
         <v>0</v>
@@ -4246,10 +4255,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C13" s="13">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D13" s="13">
         <v>0</v>
@@ -4258,19 +4267,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="G13" s="13">
-        <v>1048704</v>
+        <v>2097408</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
@@ -4279,10 +4288,10 @@
         <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="O13" s="4">
-        <v>262208</v>
+        <v>10245</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>76</v>
@@ -4300,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="W13" s="10">
         <v>1180160</v>
@@ -4317,10 +4326,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C14" s="13">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -4329,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="G14" s="13">
-        <v>8256</v>
+        <v>12336</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>48</v>
@@ -4344,7 +4353,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="8">
         <f>SUM(O2:O13)</f>
-        <v>72175040</v>
+        <v>33645957</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>79</v>
@@ -4362,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="W14" s="10">
         <v>2359296</v>
@@ -4379,7 +4388,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="14">
         <f>SUM(G2:G14)</f>
-        <v>1155354</v>
+        <v>2208138</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>81</v>
@@ -4397,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="W15" s="10">
         <v>2359296</v>
@@ -4423,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W16" s="10">
         <v>0</v>
@@ -4446,13 +4455,13 @@
         <v>1</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W17" s="10">
         <v>2359296</v>
       </c>
       <c r="AB17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="17:28" x14ac:dyDescent="0.25">
@@ -4472,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W18" s="10">
         <v>2359296</v>
@@ -4495,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W19" s="10">
         <v>2359296</v>
@@ -4518,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="W20" s="10">
         <v>0</v>
@@ -4529,7 +4538,7 @@
         <v>39</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S21" s="10">
         <v>4096</v>
@@ -4575,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="S23" s="10">
         <v>64</v>

--- a/Report/Nets_Calculate.xlsx
+++ b/Report/Nets_Calculate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="158">
   <si>
     <t>Layer</t>
   </si>
@@ -374,9 +374,6 @@
     <t>7x7x256</t>
   </si>
   <si>
-    <t>4096x64</t>
-  </si>
-  <si>
     <t>256x256x64</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
   </si>
   <si>
     <t>8x8x512</t>
-  </si>
-  <si>
-    <t>32768x4096</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -472,12 +466,6 @@
     <t>4x4x512</t>
   </si>
   <si>
-    <t>4x4x512x1024</t>
-  </si>
-  <si>
-    <t>1024x64</t>
-  </si>
-  <si>
     <t>RestNet34</t>
   </si>
   <si>
@@ -490,26 +478,38 @@
     <t>48</t>
   </si>
   <si>
-    <t>12544x2048</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>2048x2048</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2048x5</t>
+    <t>12544x512</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>512x512</t>
+  </si>
+  <si>
+    <t>512x5</t>
+  </si>
+  <si>
+    <t>32768x512</t>
+  </si>
+  <si>
+    <t>4x4x512x512</t>
+  </si>
+  <si>
+    <t>512x128</t>
+  </si>
+  <si>
+    <t>128x48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +530,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -564,7 +588,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,34 +617,70 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3235,1389 +3295,1408 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
-    <col min="26" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="18"/>
+    <col min="9" max="9" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="18"/>
+    <col min="17" max="17" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="18"/>
+    <col min="25" max="25" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="12" t="s">
+      <c r="V1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="21">
+        <v>0</v>
+      </c>
+      <c r="S2" s="21">
+        <v>0</v>
+      </c>
+      <c r="T2" s="21">
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="17">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="17">
+        <v>224</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="20">
+        <v>34944</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="21">
+        <v>64</v>
+      </c>
+      <c r="T3" s="21">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="21">
+        <v>1792</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AA3" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="21">
+        <v>64</v>
+      </c>
+      <c r="T4" s="21">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21">
+        <v>1</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="21">
+        <v>36928</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="54" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="17">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1178</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="20">
+        <v>614656</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <v>2</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD5" s="22">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="54" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="21">
+        <v>128</v>
+      </c>
+      <c r="T6" s="21">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21">
+        <v>1</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="21">
+        <v>73856</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD6" s="22">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="54" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="17">
+        <v>32</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="17">
+        <v>4640</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="20">
+        <v>885120</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="21">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="13">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="T7" s="21">
+        <v>1</v>
+      </c>
+      <c r="U7" s="21">
+        <v>1</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="21">
+        <v>147584</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="54" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="13">
-        <v>224</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="4">
-        <v>34944</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="10">
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="19">
+        <v>384</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="20">
+        <v>1327488</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="21">
+        <v>0</v>
+      </c>
+      <c r="T8" s="21">
+        <v>2</v>
+      </c>
+      <c r="U8" s="21">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="17">
         <v>64</v>
       </c>
-      <c r="T3" s="10">
-        <v>1</v>
-      </c>
-      <c r="U3" s="10">
-        <v>1</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3" s="10">
-        <v>1792</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA3" s="19">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="AB3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD3" s="19">
-        <v>9408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="F9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="17">
+        <v>18496</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="20">
+        <v>884992</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="21">
+        <v>256</v>
+      </c>
+      <c r="T9" s="21">
+        <v>1</v>
+      </c>
+      <c r="U9" s="21">
+        <v>1</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" s="21">
+        <v>295168</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="AA9" s="23">
         <v>2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="AB9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="10">
-        <v>64</v>
-      </c>
-      <c r="T4" s="10">
-        <v>1</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W4" s="10">
-        <v>36928</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z4" s="19" t="s">
+      <c r="M10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="21">
+        <v>256</v>
+      </c>
+      <c r="T10" s="21">
+        <v>1</v>
+      </c>
+      <c r="U10" s="21">
+        <v>1</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="W10" s="21">
+        <v>590080</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>512</v>
+      </c>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="24">
+        <v>512</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>4194816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="17">
+        <v>128</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="17">
+        <v>73856</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="20">
+        <v>6422528</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="21">
+        <v>256</v>
+      </c>
+      <c r="T11" s="21">
+        <v>1</v>
+      </c>
+      <c r="U11" s="21">
+        <v>1</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="21">
+        <v>590080</v>
+      </c>
+      <c r="Y11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>128</v>
+      </c>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="24">
+        <v>128</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>65664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
         <v>2</v>
       </c>
-      <c r="AB4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="13">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1178</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="F12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="20">
+        <v>262656</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
+      <c r="T12" s="21">
+        <v>2</v>
+      </c>
+      <c r="U12" s="21">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="W12" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="24">
+        <v>48</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="17">
+        <v>256</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="4">
-        <v>614656</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10">
-        <v>2</v>
-      </c>
-      <c r="U5" s="10">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="10">
-        <v>128</v>
-      </c>
-      <c r="T6" s="10">
-        <v>1</v>
-      </c>
-      <c r="U6" s="10">
-        <v>1</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="W6" s="10">
-        <v>73856</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD6" s="19">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="13">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="13">
-        <v>4640</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="4">
-        <v>885120</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="10">
-        <v>128</v>
-      </c>
-      <c r="T7" s="10">
-        <v>1</v>
-      </c>
-      <c r="U7" s="10">
-        <v>1</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" s="10">
-        <v>147584</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>9216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1">
-        <v>384</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1327488</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
-        <v>2</v>
-      </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>12288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="13">
-        <v>64</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="13">
-        <v>18496</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="4">
-        <v>884992</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="10">
-        <v>256</v>
-      </c>
-      <c r="T9" s="10">
-        <v>1</v>
-      </c>
-      <c r="U9" s="10">
-        <v>1</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="W9" s="10">
-        <v>295168</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="10">
-        <v>256</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10">
-        <v>1</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="10">
-        <v>590080</v>
-      </c>
-      <c r="Y10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="20" t="s">
+      <c r="G13" s="17">
+        <v>2097408</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="20">
+        <v>2560</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="21">
+        <v>512</v>
+      </c>
+      <c r="T13" s="21">
+        <v>1</v>
+      </c>
+      <c r="U13" s="21">
+        <v>1</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="21">
+        <v>1180160</v>
+      </c>
+      <c r="Y13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="35">
+        <f>SUM(AD2:AD12)</f>
+        <v>4302384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19">
-        <v>1024</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>8388608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="13">
-        <v>128</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="13">
-        <v>73856</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11" s="4">
-        <v>25692160</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="10">
-        <v>256</v>
-      </c>
-      <c r="T11" s="10">
-        <v>1</v>
-      </c>
-      <c r="U11" s="10">
-        <v>1</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="10">
-        <v>590080</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z11" s="20" t="s">
+      <c r="C14" s="17">
+        <v>48</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19">
-        <v>64</v>
-      </c>
-      <c r="AD11" s="19">
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4196352</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
-        <v>2</v>
-      </c>
-      <c r="U12" s="10">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10" t="s">
+      <c r="G14" s="17">
+        <v>12336</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="33">
+        <f>SUM(O2:O13)</f>
+        <v>10434944</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="21">
+        <v>512</v>
+      </c>
+      <c r="T14" s="21">
+        <v>1</v>
+      </c>
+      <c r="U14" s="21">
+        <v>1</v>
+      </c>
+      <c r="V14" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="W12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14" t="s">
+      <c r="W14" s="21">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14">
-        <f>SUM(AD2:AD11)</f>
-        <v>8489856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="13">
-        <v>256</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="13">
-        <v>2097408</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="4">
-        <v>10245</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="10">
-        <v>512</v>
-      </c>
-      <c r="T13" s="10">
-        <v>1</v>
-      </c>
-      <c r="U13" s="10">
-        <v>1</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="W13" s="10">
-        <v>1180160</v>
-      </c>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="13">
-        <v>48</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="13">
-        <v>12336</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8">
-        <f>SUM(O2:O13)</f>
-        <v>33645957</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="10">
-        <v>512</v>
-      </c>
-      <c r="T14" s="10">
-        <v>1</v>
-      </c>
-      <c r="U14" s="10">
-        <v>1</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="W14" s="10">
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="14">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="32">
         <f>SUM(G2:G14)</f>
         <v>2208138</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="21">
         <v>512</v>
       </c>
-      <c r="T15" s="10">
-        <v>1</v>
-      </c>
-      <c r="U15" s="10">
-        <v>1</v>
-      </c>
-      <c r="V15" s="10" t="s">
+      <c r="T15" s="21">
+        <v>1</v>
+      </c>
+      <c r="U15" s="21">
+        <v>1</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="W15" s="21">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <v>2</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="21">
+        <v>512</v>
+      </c>
+      <c r="T17" s="21">
+        <v>1</v>
+      </c>
+      <c r="U17" s="21">
+        <v>1</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W17" s="21">
         <v>2359296</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="R16" s="10" t="s">
+      <c r="AB17" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="21">
+        <v>512</v>
+      </c>
+      <c r="T18" s="21">
+        <v>1</v>
+      </c>
+      <c r="U18" s="21">
+        <v>1</v>
+      </c>
+      <c r="V18" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" s="21">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="19" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" s="21">
+        <v>512</v>
+      </c>
+      <c r="T19" s="21">
+        <v>1</v>
+      </c>
+      <c r="U19" s="21">
+        <v>1</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W19" s="21">
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="20" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
+      <c r="S20" s="21">
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
         <v>2</v>
       </c>
-      <c r="U16" s="10">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10" t="s">
+      <c r="U20" s="21">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="W16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" s="10">
+      <c r="W20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="S21" s="21">
         <v>512</v>
       </c>
-      <c r="T17" s="10">
-        <v>1</v>
-      </c>
-      <c r="U17" s="10">
-        <v>1</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="W17" s="10">
-        <v>2359296</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="10">
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
         <v>512</v>
       </c>
-      <c r="T18" s="10">
-        <v>1</v>
-      </c>
-      <c r="U18" s="10">
-        <v>1</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="W18" s="10">
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" s="10">
+      <c r="W21" s="21">
+        <v>16777728</v>
+      </c>
+    </row>
+    <row r="22" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" s="21">
         <v>512</v>
       </c>
-      <c r="T19" s="10">
-        <v>1</v>
-      </c>
-      <c r="U19" s="10">
-        <v>1</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="W19" s="10">
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <v>2</v>
-      </c>
-      <c r="U20" s="10">
-        <v>0</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="W20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="S21" s="10">
-        <v>4096</v>
-      </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10">
-        <v>4096</v>
-      </c>
-      <c r="W21" s="10">
-        <v>134221824</v>
-      </c>
-    </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" s="10">
-        <v>4096</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
-        <v>0</v>
-      </c>
-      <c r="V22" s="10">
-        <v>4096</v>
-      </c>
-      <c r="W22" s="10">
-        <v>16781312</v>
-      </c>
-    </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q23" s="10" t="s">
+      <c r="T22" s="21">
+        <v>0</v>
+      </c>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <v>512</v>
+      </c>
+      <c r="W22" s="21">
+        <v>262656</v>
+      </c>
+    </row>
+    <row r="23" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="R23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="S23" s="10">
-        <v>64</v>
-      </c>
-      <c r="T23" s="10">
-        <v>0</v>
-      </c>
-      <c r="U23" s="10">
-        <v>0</v>
-      </c>
-      <c r="V23" s="10">
-        <v>64</v>
-      </c>
-      <c r="W23" s="10">
-        <v>262208</v>
-      </c>
-    </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="Q24" s="11" t="s">
+      <c r="R23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="S23" s="21">
+        <v>5</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <v>5</v>
+      </c>
+      <c r="W23" s="21">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="24" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11">
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="34">
         <f>SUM(W2:W23)</f>
-        <v>165977472</v>
-      </c>
-    </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
-      <c r="T26" t="s">
+        <v>31755077</v>
+      </c>
+    </row>
+    <row r="26" spans="17:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="18" t="s">
         <v>91</v>
       </c>
     </row>
